--- a/scripts_and_outputs/Included_Papers.xlsx
+++ b/scripts_and_outputs/Included_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixNeubauer\UniRepos\literature_review_thesis\scripts_and_outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixneubauer/UniRepos/literature_review_thesis/scripts_and_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EAD3BA-3416-485D-8DD4-6B16F591089B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813C2F2-7362-F340-BC97-C76C4936E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1235,6 +1235,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1285,7 +1286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1587,21 +1588,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="70.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>342</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4562,5 +4563,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>